--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3102,7 +3102,7 @@
         <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-non-collected-sample.xlsx
+++ b/StructureDefinition-ncpi-non-collected-sample.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
